--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H2">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I2">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J2">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q2">
-        <v>0.08265387144888892</v>
+        <v>0.4396403021561112</v>
       </c>
       <c r="R2">
-        <v>0.7438848430400001</v>
+        <v>3.956762719405</v>
       </c>
       <c r="S2">
-        <v>0.0002276046096228628</v>
+        <v>0.005747155498937793</v>
       </c>
       <c r="T2">
-        <v>0.0002276046096228628</v>
+        <v>0.005747155498937792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H3">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I3">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J3">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N3">
         <v>1.354768</v>
       </c>
       <c r="O3">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P3">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q3">
-        <v>0.008347779356444446</v>
+        <v>0.02229210532088889</v>
       </c>
       <c r="R3">
-        <v>0.07513001420800001</v>
+        <v>0.200628947888</v>
       </c>
       <c r="S3">
-        <v>2.298734503702273E-05</v>
+        <v>0.0002914113993861155</v>
       </c>
       <c r="T3">
-        <v>2.298734503702273E-05</v>
+        <v>0.0002914113993861155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H4">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I4">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J4">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N4">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O4">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P4">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q4">
-        <v>0.1148491480142222</v>
+        <v>0.3841308096257778</v>
       </c>
       <c r="R4">
-        <v>1.033642332128</v>
+        <v>3.457177286632</v>
       </c>
       <c r="S4">
-        <v>0.0003162609934788099</v>
+        <v>0.005021513005120948</v>
       </c>
       <c r="T4">
-        <v>0.0003162609934788099</v>
+        <v>0.005021513005120947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H5">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I5">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J5">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N5">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O5">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P5">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q5">
-        <v>0.07170786141866667</v>
+        <v>0.1921513963202222</v>
       </c>
       <c r="R5">
-        <v>0.645370752768</v>
+        <v>1.729362566882</v>
       </c>
       <c r="S5">
-        <v>0.0001974624965411148</v>
+        <v>0.00251188061825644</v>
       </c>
       <c r="T5">
-        <v>0.0001974624965411148</v>
+        <v>0.002511880618256439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H6">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I6">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J6">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N6">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O6">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P6">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q6">
-        <v>0.5961447968817779</v>
+        <v>2.147101872048222</v>
       </c>
       <c r="R6">
-        <v>5.365303171936001</v>
+        <v>19.323916848434</v>
       </c>
       <c r="S6">
-        <v>0.001641608570711444</v>
+        <v>0.02806778238984076</v>
       </c>
       <c r="T6">
-        <v>0.001641608570711444</v>
+        <v>0.02806778238984076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H7">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I7">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J7">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N7">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O7">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P7">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q7">
-        <v>0.1196734996017778</v>
+        <v>0.345916733349</v>
       </c>
       <c r="R7">
-        <v>1.077061496416</v>
+        <v>3.113250600141</v>
       </c>
       <c r="S7">
-        <v>0.0003295458480236817</v>
+        <v>0.004521963174193649</v>
       </c>
       <c r="T7">
-        <v>0.0003295458480236817</v>
+        <v>0.004521963174193649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.02585</v>
       </c>
       <c r="I8">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J8">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N8">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O8">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P8">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q8">
-        <v>0.03852788836111112</v>
+        <v>0.07674134019444445</v>
       </c>
       <c r="R8">
-        <v>0.34675099525</v>
+        <v>0.6906720617500001</v>
       </c>
       <c r="S8">
-        <v>0.0001060945462844598</v>
+        <v>0.001003193777120432</v>
       </c>
       <c r="T8">
-        <v>0.0001060945462844598</v>
+        <v>0.001003193777120432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.02585</v>
       </c>
       <c r="I9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N9">
         <v>1.354768</v>
       </c>
       <c r="O9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q9">
         <v>0.003891194755555556</v>
       </c>
       <c r="R9">
-        <v>0.03502075280000001</v>
+        <v>0.0350207528</v>
       </c>
       <c r="S9">
-        <v>1.071521330797457E-05</v>
+        <v>5.086726859924699E-05</v>
       </c>
       <c r="T9">
-        <v>1.071521330797457E-05</v>
+        <v>5.086726859924699E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.02585</v>
       </c>
       <c r="I10">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J10">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N10">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O10">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P10">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q10">
-        <v>0.05353524372777778</v>
+        <v>0.06705188991111111</v>
       </c>
       <c r="R10">
-        <v>0.48181719355</v>
+        <v>0.6034670092</v>
       </c>
       <c r="S10">
-        <v>0.0001474204176541264</v>
+        <v>0.0008765293716861692</v>
       </c>
       <c r="T10">
-        <v>0.0001474204176541264</v>
+        <v>0.0008765293716861692</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.02585</v>
       </c>
       <c r="I11">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J11">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N11">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O11">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P11">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q11">
-        <v>0.03342556653333333</v>
+        <v>0.03354095518888889</v>
       </c>
       <c r="R11">
-        <v>0.3008300988</v>
+        <v>0.3018685967</v>
       </c>
       <c r="S11">
-        <v>9.204424292390033E-05</v>
+        <v>0.0004384609056723836</v>
       </c>
       <c r="T11">
-        <v>9.204424292390034E-05</v>
+        <v>0.0004384609056723836</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.02585</v>
       </c>
       <c r="I12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N12">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O12">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P12">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q12">
-        <v>0.2778841423722223</v>
+        <v>0.3747870119888889</v>
       </c>
       <c r="R12">
-        <v>2.50095728135</v>
+        <v>3.3730831079</v>
       </c>
       <c r="S12">
-        <v>0.000765211727367477</v>
+        <v>0.004899367110610258</v>
       </c>
       <c r="T12">
-        <v>0.0007652117273674772</v>
+        <v>0.004899367110610258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.02585</v>
       </c>
       <c r="I13">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J13">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N13">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O13">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P13">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q13">
-        <v>0.05578404437222222</v>
+        <v>0.06038143815</v>
       </c>
       <c r="R13">
-        <v>0.50205639935</v>
+        <v>0.54343294335</v>
       </c>
       <c r="S13">
-        <v>0.0001536129575052685</v>
+        <v>0.0007893305336104545</v>
       </c>
       <c r="T13">
-        <v>0.0001536129575052685</v>
+        <v>0.0007893305336104545</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H14">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I14">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J14">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N14">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O14">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P14">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q14">
-        <v>30.09442125389112</v>
+        <v>9.007536328522777</v>
       </c>
       <c r="R14">
-        <v>270.84979128502</v>
+        <v>81.06782695670499</v>
       </c>
       <c r="S14">
-        <v>0.08287124222068067</v>
+        <v>0.1177501509494676</v>
       </c>
       <c r="T14">
-        <v>0.08287124222068065</v>
+        <v>0.1177501509494675</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H15">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I15">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J15">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N15">
         <v>1.354768</v>
       </c>
       <c r="O15">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P15">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q15">
-        <v>3.039441275811556</v>
+        <v>0.4567300757742221</v>
       </c>
       <c r="R15">
-        <v>27.35497148230401</v>
+        <v>4.110570681967999</v>
       </c>
       <c r="S15">
-        <v>0.008369733116258101</v>
+        <v>0.005970559918285255</v>
       </c>
       <c r="T15">
-        <v>0.008369733116258101</v>
+        <v>0.005970559918285254</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H16">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N16">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q16">
-        <v>41.81677857797379</v>
+        <v>7.870234383972443</v>
       </c>
       <c r="R16">
-        <v>376.351007201764</v>
+        <v>70.83210945575199</v>
       </c>
       <c r="S16">
-        <v>0.1151511888927177</v>
+        <v>0.1028828808367877</v>
       </c>
       <c r="T16">
-        <v>0.1151511888927177</v>
+        <v>0.1028828808367877</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H17">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I17">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J17">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N17">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O17">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P17">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q17">
-        <v>26.10895957950934</v>
+        <v>3.936879022333555</v>
       </c>
       <c r="R17">
-        <v>234.980636215584</v>
+        <v>35.43191120100199</v>
       </c>
       <c r="S17">
-        <v>0.07189644536406298</v>
+        <v>0.05146447177589045</v>
       </c>
       <c r="T17">
-        <v>0.07189644536406298</v>
+        <v>0.05146447177589044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H18">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I18">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J18">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N18">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O18">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P18">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q18">
-        <v>217.0573783318743</v>
+        <v>43.99073064654154</v>
       </c>
       <c r="R18">
-        <v>1953.516404986868</v>
+        <v>395.9165758188739</v>
       </c>
       <c r="S18">
-        <v>0.5977125934329408</v>
+        <v>0.5750645887050376</v>
       </c>
       <c r="T18">
-        <v>0.5977125934329408</v>
+        <v>0.5750645887050375</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H19">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I19">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J19">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N19">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O19">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P19">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q19">
-        <v>43.57333355123423</v>
+        <v>7.087288237688998</v>
       </c>
       <c r="R19">
-        <v>392.160001961108</v>
+        <v>63.78559413920099</v>
       </c>
       <c r="S19">
-        <v>0.1199882280048816</v>
+        <v>0.09264789276149686</v>
       </c>
       <c r="T19">
-        <v>0.1199882280048816</v>
+        <v>0.09264789276149685</v>
       </c>
     </row>
   </sheetData>
